--- a/excel/policy/coal.xlsx
+++ b/excel/policy/coal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalon/Desktop/181210_最新数据/政策进展数据汇总-统一了名字/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\web-heat-map\public\excel\policy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6230804-A7AC-4BA1-9D35-BBFFD21121F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10000" yWindow="-28800" windowWidth="51200" windowHeight="28800"/>
+    <workbookView xWindow="-10005" yWindow="-28800" windowWidth="51195" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 煤炭消费量" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,9 @@
   <definedNames>
     <definedName name="latlon_127028" localSheetId="1">工作表1!$A$1:$I$32</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,17 +29,20 @@
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F13" authorId="0">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -80,8 +81,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="latlon_127028" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="latlon_127028" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" codePage="10008" sourceFile="/Users/jalon/Downloads/latlon_127028.txt" tab="0" comma="1">
       <textFields count="9">
         <textField type="text"/>
@@ -100,140 +101,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="132">
   <si>
     <t>地区</t>
   </si>
   <si>
-    <t>2013年</t>
-  </si>
-  <si>
-    <t>2014年</t>
-  </si>
-  <si>
-    <t>2015年</t>
-  </si>
-  <si>
-    <t>2016年</t>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市</t>
-  </si>
-  <si>
-    <t>天津市</t>
-  </si>
-  <si>
-    <t>河北省</t>
-  </si>
-  <si>
-    <t>山西省</t>
-  </si>
-  <si>
-    <t>内蒙古自治区</t>
-  </si>
-  <si>
-    <t>辽宁省</t>
-  </si>
-  <si>
-    <t>吉林省</t>
-  </si>
-  <si>
-    <t>黑龙江省</t>
-  </si>
-  <si>
-    <t>上海市</t>
-  </si>
-  <si>
-    <t>江苏省</t>
-  </si>
-  <si>
-    <t>浙江省</t>
-  </si>
-  <si>
-    <t>安徽省</t>
-  </si>
-  <si>
-    <t>福建省</t>
-  </si>
-  <si>
-    <t>江西省</t>
-  </si>
-  <si>
-    <t>山东省</t>
-  </si>
-  <si>
-    <t>河南省</t>
-  </si>
-  <si>
-    <t>湖北省</t>
-  </si>
-  <si>
-    <t>湖南省</t>
-  </si>
-  <si>
-    <t>广东省</t>
-  </si>
-  <si>
-    <t>广西壮族自治区</t>
-  </si>
-  <si>
-    <t>海南省</t>
-  </si>
-  <si>
-    <t>重庆市</t>
-  </si>
-  <si>
-    <t>四川省</t>
-  </si>
-  <si>
-    <t>贵州省</t>
-  </si>
-  <si>
-    <t>云南省</t>
-  </si>
-  <si>
-    <t>西藏自治区</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>陕西省</t>
-  </si>
-  <si>
-    <t>甘肃省</t>
-  </si>
-  <si>
-    <t>青海省</t>
-  </si>
-  <si>
-    <t>宁夏回族自治区</t>
-  </si>
-  <si>
-    <t>新疆维吾尔自治区</t>
   </si>
   <si>
     <t>GPS绾害</t>
@@ -533,13 +406,106 @@
   <si>
     <t>LNGB</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>辽宁</t>
+  </si>
+  <si>
+    <t>吉林</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
+    <t>江苏</t>
+  </si>
+  <si>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>安徽</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>湖北</t>
+  </si>
+  <si>
+    <t>湖南</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>海南</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>贵州</t>
+  </si>
+  <si>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>甘肃</t>
+  </si>
+  <si>
+    <t>青海</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>内蒙古</t>
+  </si>
+  <si>
+    <t>西藏</t>
+  </si>
+  <si>
+    <t>广西</t>
+  </si>
+  <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>新疆</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,17 +522,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -626,10 +581,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -651,7 +606,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="latlon_127028" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="latlon_127028" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -950,14 +905,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="7" max="8" width="12.5" bestFit="1" customWidth="1"/>
@@ -967,31 +922,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
+      <c r="B1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2017</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B2" s="4">
         <v>2019.23</v>
@@ -1017,7 +972,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B3" s="4">
         <v>5278.67</v>
@@ -1043,7 +998,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B4" s="4">
         <v>31663.27</v>
@@ -1070,7 +1025,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B5" s="4">
         <v>36636.51</v>
@@ -1094,7 +1049,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="B6" s="4">
         <v>34915.72</v>
@@ -1118,7 +1073,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B7" s="4">
         <v>18132.77</v>
@@ -1142,7 +1097,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="B8" s="4">
         <v>10413.74</v>
@@ -1166,7 +1121,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B9" s="4">
         <v>13266.81</v>
@@ -1190,7 +1145,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="B10" s="4">
         <v>5681.19</v>
@@ -1214,7 +1169,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="B11" s="4">
         <v>27946.07</v>
@@ -1240,7 +1195,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="B12" s="4">
         <v>14161.26</v>
@@ -1264,7 +1219,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="B13" s="4">
         <v>15665.08</v>
@@ -1290,7 +1245,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="B14" s="4">
         <v>8078.64</v>
@@ -1314,7 +1269,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="B15" s="4">
         <v>7254.69</v>
@@ -1338,7 +1293,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="B16" s="4">
         <v>37683.440000000002</v>
@@ -1364,7 +1319,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="B17" s="4">
         <v>25058.14</v>
@@ -1389,7 +1344,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="B18" s="4">
         <v>12166.72</v>
@@ -1413,7 +1368,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="B19" s="4">
         <v>11223.84</v>
@@ -1437,7 +1392,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B20" s="4">
         <v>17106.78</v>
@@ -1461,7 +1416,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B21" s="4">
         <v>7344.11</v>
@@ -1485,7 +1440,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="B22" s="4">
         <v>1008.78</v>
@@ -1509,7 +1464,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="B23" s="4">
         <v>5794.47</v>
@@ -1533,7 +1488,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="B24" s="4">
         <v>11678.55</v>
@@ -1560,7 +1515,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="B25" s="4">
         <v>13650.74</v>
@@ -1584,7 +1539,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="B26" s="4">
         <v>9783.09</v>
@@ -1607,19 +1562,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>29.646915582599998</v>
@@ -1630,7 +1585,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="B28" s="4">
         <v>17247.95</v>
@@ -1653,7 +1608,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="B29" s="4">
         <v>6541.07</v>
@@ -1676,7 +1631,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="B30" s="4">
         <v>2073.15</v>
@@ -1699,7 +1654,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="B31" s="4">
         <v>8533.51</v>
@@ -1722,7 +1677,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="B32" s="4">
         <v>14205.5</v>
@@ -1752,45 +1707,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>116.4007533787</v>
@@ -1808,15 +1763,15 @@
         <v>116.413387</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>117.196709841</v>
@@ -1834,18 +1789,18 @@
         <v>117.20952</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>114.52407188799999</v>
@@ -1863,15 +1818,15 @@
         <v>114.53659399999999</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>112.55671332830001</v>
@@ -1889,18 +1844,18 @@
         <v>112.56937600000001</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>111.7590830143</v>
@@ -1918,18 +1873,18 @@
         <v>111.772606</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>123.42287530909999</v>
@@ -1947,15 +1902,15 @@
         <v>123.43559399999999</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>125.31948604740001</v>
@@ -1973,15 +1928,15 @@
         <v>125.332582</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>126.6569889294</v>
@@ -1999,15 +1954,15 @@
         <v>126.669656</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>121.469459249</v>
@@ -2025,15 +1980,15 @@
         <v>121.48054</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>118.75777971789999</v>
@@ -2051,15 +2006,15 @@
         <v>118.769553</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>120.1482817504</v>
@@ -2077,15 +2032,15 @@
         <v>120.159537</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>117.3184097275</v>
@@ -2103,15 +2058,15 @@
         <v>117.330539</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>119.2912109374</v>
@@ -2129,15 +2084,15 @@
         <v>119.302446</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>115.9041651882</v>
@@ -2155,15 +2110,15 @@
         <v>115.91542099999999</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>117.0150329528</v>
@@ -2181,15 +2136,15 @@
         <v>117.02744199999999</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>113.7468087479</v>
@@ -2207,15 +2162,15 @@
         <v>113.75937999999999</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>114.33651651930001</v>
@@ -2233,15 +2188,15 @@
         <v>114.348443</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>112.9774371866</v>
@@ -2259,15 +2214,15 @@
         <v>112.989604</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>113.2606615241</v>
@@ -2285,15 +2240,15 @@
         <v>113.272426</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>108.3239924052</v>
@@ -2311,15 +2266,15 @@
         <v>108.33452200000001</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>110.3445895734</v>
@@ -2337,18 +2292,18 @@
         <v>110.355538</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B23">
         <v>106.54828283080001</v>
@@ -2366,15 +2321,15 @@
         <v>106.558437</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>104.0645185402</v>
@@ -2392,18 +2347,18 @@
         <v>104.073463</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>106.7042655578</v>
@@ -2421,15 +2376,15 @@
         <v>106.714473</v>
       </c>
       <c r="G25" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B26">
         <v>102.70856459149999</v>
@@ -2447,15 +2402,15 @@
         <v>102.71642</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>91.116259231100003</v>
@@ -2473,15 +2428,15 @@
         <v>91.124343999999994</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="B28">
         <v>108.9493179689</v>
@@ -2499,15 +2454,15 @@
         <v>108.96038900000001</v>
       </c>
       <c r="G28" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B29">
         <v>103.8235780073</v>
@@ -2525,15 +2480,15 @@
         <v>103.832475</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="B30">
         <v>101.77805154230001</v>
@@ -2551,15 +2506,15 @@
         <v>101.786458</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B31">
         <v>106.2545993266</v>
@@ -2577,15 +2532,15 @@
         <v>106.265607</v>
       </c>
       <c r="G31" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B32">
         <v>87.624173115800005</v>
@@ -2603,10 +2558,10 @@
         <v>87.633475000000004</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
